--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2018-12.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2018-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -85,24 +85,24 @@
     <t>Riña Pública (496 Nº 10 Código Penal).</t>
   </si>
   <si>
+    <t>Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
+  </si>
+  <si>
     <t>Receptacion. Art. 456 Bis A.</t>
   </si>
   <si>
-    <t>Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
+    <t>Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+  </si>
+  <si>
+    <t>Estafas Y Otras Defraudaciones Contra Particulares</t>
+  </si>
+  <si>
+    <t>Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
   </si>
   <si>
     <t>Porte De Arma Cortante O Punzante (288 Bis).</t>
   </si>
   <si>
-    <t>Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
-  </si>
-  <si>
-    <t>Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
-  </si>
-  <si>
-    <t>Estafas Y Otras Defraudaciones Contra Particulares</t>
-  </si>
-  <si>
     <t>Violacion De Morada.</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Lesiones Leves 494 N°5 Código Penal</t>
   </si>
   <si>
+    <t>Robo Por Sorpresa.</t>
+  </si>
+  <si>
     <t>Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
   </si>
   <si>
-    <t>Robo Por Sorpresa.</t>
-  </si>
-  <si>
     <t>Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
   </si>
   <si>
+    <t>Robo En Lugar No Habitado.</t>
+  </si>
+  <si>
     <t>Falsificacion O Uso Malicioso De Documentos Privados.</t>
   </si>
   <si>
-    <t>Robo En Lugar No Habitado.</t>
-  </si>
-  <si>
     <t>Robo Con Intimidacion.</t>
   </si>
   <si>
@@ -160,175 +160,172 @@
     <t>Apropiacion Indebida Art.470 N°1</t>
   </si>
   <si>
+    <t>Usurpacion De Nombre.</t>
+  </si>
+  <si>
+    <t>Muertes Y Hallazgo De Cadaver.</t>
+  </si>
+  <si>
+    <t>Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+  </si>
+  <si>
     <t>Hurto Simple Por Un Valor Sobre 40 Utm.</t>
   </si>
   <si>
+    <t>Violación De Mayor De 14 Años.</t>
+  </si>
+  <si>
     <t>Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
   </si>
   <si>
     <t>Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
   </si>
   <si>
-    <t>Violación De Mayor De 14 Años.</t>
-  </si>
-  <si>
     <t>Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
   </si>
   <si>
-    <t>Muertes Y Hallazgo De Cadaver.</t>
-  </si>
-  <si>
-    <t>Usurpacion De Nombre.</t>
-  </si>
-  <si>
-    <t>Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
-  </si>
-  <si>
     <t>Amenazasa Carabineros (Art. 417 Cód. J.militar).</t>
   </si>
   <si>
+    <t>Otros Delitos Contra Ley De Propiedad Industrial.</t>
+  </si>
+  <si>
+    <t>Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+  </si>
+  <si>
+    <t>Daños Calificados.</t>
+  </si>
+  <si>
+    <t>Falsificacion De Obras Protegidas Por Ley De Propiedad Intel</t>
+  </si>
+  <si>
+    <t>Cuasidelito De Homicidio.</t>
+  </si>
+  <si>
+    <t>March Sit Suc Sin Prest Aux Víctima. Art 195 Inc 2° Y 3°</t>
+  </si>
+  <si>
+    <t>Otros Delitos Contra La Ley Del Transito.</t>
+  </si>
+  <si>
     <t>Negativa A Efectuarse Examen. Art. 195 Bis Ley De Transito</t>
   </si>
   <si>
-    <t>March Sit Suc Sin Prest Aux Víctima. Art 195 Inc 2° Y 3°</t>
-  </si>
-  <si>
-    <t>Falsificacion De Obras Protegidas Por Ley De Propiedad Intel</t>
-  </si>
-  <si>
-    <t>Cuasidelito De Homicidio.</t>
-  </si>
-  <si>
-    <t>Otros Delitos Contra La Ley Del Transito.</t>
+    <t>Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
   </si>
   <si>
     <t>Delitos Marcarios.arts. 28 Y 28 Bis.ley Nº 19.039.</t>
   </si>
   <si>
-    <t>Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
-  </si>
-  <si>
-    <t>Daños Calificados.</t>
-  </si>
-  <si>
-    <t>Otros Delitos Contra Ley De Propiedad Industrial.</t>
-  </si>
-  <si>
-    <t>Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+    <t>Homicidio.</t>
   </si>
   <si>
     <t>Presunta Desgracia Infantil.</t>
   </si>
   <si>
+    <t>Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
+  </si>
+  <si>
+    <t>Usurpacion De Propiedad,Descubrimiento O Produccion.art.158.</t>
+  </si>
+  <si>
+    <t>Trata De Personas Para La Explotación Sexual</t>
+  </si>
+  <si>
+    <t>Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
+  </si>
+  <si>
+    <t>Amenaza Con Arma (Falta) Art. 494 Nº 4 Codigo Penal.</t>
+  </si>
+  <si>
+    <t>Abusos Contra Particulares.arts. 255.</t>
+  </si>
+  <si>
+    <t>Conduc.ebriedad Resul.lesiones Menos Grave.a196 I.2Ley.trans</t>
+  </si>
+  <si>
+    <t>Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
+  </si>
+  <si>
+    <t>Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+  </si>
+  <si>
+    <t>Castracion Y Mutilacion.</t>
+  </si>
+  <si>
+    <t>Atentado A Vehiculo Motorizado En Circulacion Con Objeto Con</t>
+  </si>
+  <si>
+    <t>Otras Infracciones Al Csdigo De Justicia Militar.</t>
+  </si>
+  <si>
+    <t>Conduc Bajo La Inf. Del Alcohol Art 193 Inc. 2 Ley De Trans</t>
+  </si>
+  <si>
+    <t>Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+  </si>
+  <si>
+    <t>Trafico De Migrantes 411 Bis Inciso 1, 2 Y 3</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Sin Contacto Art. 366 Quáter Inc. 1° Y 2</t>
+  </si>
+  <si>
+    <t>Otros De Los Cuasidelitos</t>
+  </si>
+  <si>
+    <t>Falsificacion O Uso Malicioso De Doc Públ Art. 193,194,196</t>
+  </si>
+  <si>
+    <t>Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
+  </si>
+  <si>
+    <t>Accidente Con Resultado De Muerte O Lesiones Graves. Ley De.</t>
+  </si>
+  <si>
+    <t>Apremios Ilegítimos Cometidos Por Empleados Públicos.</t>
+  </si>
+  <si>
+    <t>Celebración De Contrato Simulado.</t>
+  </si>
+  <si>
+    <t>Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+  </si>
+  <si>
+    <t>Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+  </si>
+  <si>
+    <t>Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+  </si>
+  <si>
+    <t>Usurpacion De Aguas.</t>
+  </si>
+  <si>
+    <t>Otras Infrac A La Ordenanza Aduanas. Ley 20.780</t>
+  </si>
+  <si>
+    <t>Robo De Vehiculo Motorizado.</t>
+  </si>
+  <si>
+    <t>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación</t>
+  </si>
+  <si>
+    <t>Comerc.o Distrib.señal Proteg.telev.art 36B,Ltr E,Ley 18168</t>
+  </si>
+  <si>
+    <t>Cuasidelito De Homicidio Cometido Por Profesionales De La Sa</t>
+  </si>
+  <si>
+    <t>Posesión O Tenencia De Armas Prohibidas</t>
+  </si>
+  <si>
+    <t>Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
+  </si>
+  <si>
+    <t>Cohecho Cometido Por Empleado Público.art.248,248 Bis Y 249.</t>
+  </si>
+  <si>
     <t>Hallazgo De Drogas.</t>
-  </si>
-  <si>
-    <t>Usurpacion De Propiedad,Descubrimiento O Produccion.art.158.</t>
-  </si>
-  <si>
-    <t>Trata De Personas Para La Explotación Sexual</t>
-  </si>
-  <si>
-    <t>Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
-  </si>
-  <si>
-    <t>Amenaza Con Arma (Falta) Art. 494 Nº 4 Codigo Penal.</t>
-  </si>
-  <si>
-    <t>Abusos Contra Particulares.arts. 255.</t>
-  </si>
-  <si>
-    <t>Conduc.ebriedad Resul.lesiones Menos Grave.a196 I.2Ley.trans</t>
-  </si>
-  <si>
-    <t>Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
-  </si>
-  <si>
-    <t>Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
-  </si>
-  <si>
-    <t>Castracion Y Mutilacion.</t>
-  </si>
-  <si>
-    <t>Homicidio Calificado.</t>
-  </si>
-  <si>
-    <t>Atentado A Vehiculo Motorizado En Circulacion Con Objeto Con</t>
-  </si>
-  <si>
-    <t>Otras Infracciones Al Csdigo De Justicia Militar.</t>
-  </si>
-  <si>
-    <t>Conduc Bajo La Inf. Del Alcohol Art 193 Inc. 2 Ley De Trans</t>
-  </si>
-  <si>
-    <t>Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
-  </si>
-  <si>
-    <t>Trafico De Migrantes 411 Bis Inciso 1, 2 Y 3</t>
-  </si>
-  <si>
-    <t>Abuso Sexual Sin Contacto Art. 366 Quáter Inc. 1° Y 2</t>
-  </si>
-  <si>
-    <t>Otros De Los Cuasidelitos</t>
-  </si>
-  <si>
-    <t>Falsificacion O Uso Malicioso De Doc Públ Art. 193,194,196</t>
-  </si>
-  <si>
-    <t>Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
-  </si>
-  <si>
-    <t>Accidente Con Resultado De Muerte O Lesiones Graves. Ley De.</t>
-  </si>
-  <si>
-    <t>Apremios Ilegítimos Cometidos Por Empleados Públicos.</t>
-  </si>
-  <si>
-    <t>Celebración De Contrato Simulado.</t>
-  </si>
-  <si>
-    <t>Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
-  </si>
-  <si>
-    <t>Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
-  </si>
-  <si>
-    <t>Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
-  </si>
-  <si>
-    <t>Usurpacion De Aguas.</t>
-  </si>
-  <si>
-    <t>Otras Infrac A La Ordenanza Aduanas. Ley 20.780</t>
-  </si>
-  <si>
-    <t>Robo De Vehiculo Motorizado.</t>
-  </si>
-  <si>
-    <t>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación</t>
-  </si>
-  <si>
-    <t>Comerc.o Distrib.señal Proteg.telev.art 36B,Ltr E,Ley 18168</t>
-  </si>
-  <si>
-    <t>Cuasidelito De Homicidio Cometido Por Profesionales De La Sa</t>
-  </si>
-  <si>
-    <t>Posesión O Tenencia De Armas Prohibidas</t>
-  </si>
-  <si>
-    <t>Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
-  </si>
-  <si>
-    <t>Cohecho Cometido Por Empleado Público.art.248,248 Bis Y 249.</t>
-  </si>
-  <si>
-    <t>Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
-  </si>
-  <si>
-    <t>Homicidio.</t>
   </si>
   <si>
     <t>Corte De Apelaciones De Arica</t>
@@ -698,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,16 +735,16 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>2018</v>
@@ -764,16 +761,16 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <v>2018</v>
@@ -790,16 +787,16 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>2018</v>
@@ -816,16 +813,16 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5">
         <v>2018</v>
@@ -842,16 +839,16 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6">
         <v>2018</v>
@@ -868,16 +865,16 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -894,16 +891,16 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8">
         <v>2018</v>
@@ -920,16 +917,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9">
         <v>2018</v>
@@ -946,16 +943,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <v>2018</v>
@@ -972,16 +969,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11">
         <v>2018</v>
@@ -998,16 +995,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12">
         <v>2018</v>
@@ -1024,16 +1021,16 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13">
         <v>2018</v>
@@ -1050,16 +1047,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14">
         <v>2018</v>
@@ -1076,16 +1073,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15">
         <v>2018</v>
@@ -1102,16 +1099,16 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16">
         <v>2018</v>
@@ -1128,16 +1125,16 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17">
         <v>2018</v>
@@ -1154,16 +1151,16 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18">
         <v>2018</v>
@@ -1180,16 +1177,16 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19">
         <v>2018</v>
@@ -1206,16 +1203,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20">
         <v>2018</v>
@@ -1232,16 +1229,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21">
         <v>2018</v>
@@ -1258,16 +1255,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -1284,16 +1281,16 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23">
         <v>2018</v>
@@ -1310,16 +1307,16 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24">
         <v>2018</v>
@@ -1336,16 +1333,16 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25">
         <v>2018</v>
@@ -1362,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26">
         <v>2018</v>
@@ -1388,16 +1385,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -1414,16 +1411,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28">
         <v>2018</v>
@@ -1440,16 +1437,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29">
         <v>2018</v>
@@ -1466,16 +1463,16 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G30">
         <v>2018</v>
@@ -1492,16 +1489,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G31">
         <v>2018</v>
@@ -1518,16 +1515,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32">
         <v>2018</v>
@@ -1544,16 +1541,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33">
         <v>2018</v>
@@ -1570,16 +1567,16 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34">
         <v>2018</v>
@@ -1596,16 +1593,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35">
         <v>2018</v>
@@ -1622,16 +1619,16 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36">
         <v>2018</v>
@@ -1648,16 +1645,16 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37">
         <v>2018</v>
@@ -1674,16 +1671,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38">
         <v>2018</v>
@@ -1700,16 +1697,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39">
         <v>2018</v>
@@ -1726,16 +1723,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G40">
         <v>2018</v>
@@ -1752,16 +1749,16 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41">
         <v>2018</v>
@@ -1778,16 +1775,16 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G42">
         <v>2018</v>
@@ -1804,16 +1801,16 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43">
         <v>2018</v>
@@ -1830,16 +1827,16 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G44">
         <v>2018</v>
@@ -1856,16 +1853,16 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G45">
         <v>2018</v>
@@ -1882,16 +1879,16 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46">
         <v>2018</v>
@@ -1908,16 +1905,16 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47">
         <v>2018</v>
@@ -1934,16 +1931,16 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G48">
         <v>2018</v>
@@ -1960,16 +1957,16 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G49">
         <v>2018</v>
@@ -1986,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G50">
         <v>2018</v>
@@ -2012,16 +2009,16 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G51">
         <v>2018</v>
@@ -2038,16 +2035,16 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G52">
         <v>2018</v>
@@ -2064,16 +2061,16 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53">
         <v>2018</v>
@@ -2090,16 +2087,16 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G54">
         <v>2018</v>
@@ -2116,16 +2113,16 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55">
         <v>2018</v>
@@ -2142,16 +2139,16 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G56">
         <v>2018</v>
@@ -2168,16 +2165,16 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57">
         <v>2018</v>
@@ -2194,16 +2191,16 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G58">
         <v>2018</v>
@@ -2220,16 +2217,16 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G59">
         <v>2018</v>
@@ -2246,16 +2243,16 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G60">
         <v>2018</v>
@@ -2269,19 +2266,19 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G61">
         <v>2018</v>
@@ -2298,16 +2295,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G62">
         <v>2018</v>
@@ -2324,16 +2321,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G63">
         <v>2018</v>
@@ -2350,16 +2347,16 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G64">
         <v>2018</v>
@@ -2376,16 +2373,16 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65">
         <v>2018</v>
@@ -2402,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G66">
         <v>2018</v>
@@ -2428,16 +2425,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G67">
         <v>2018</v>
@@ -2454,16 +2451,16 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G68">
         <v>2018</v>
@@ -2480,16 +2477,16 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G69">
         <v>2018</v>
@@ -2506,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G70">
         <v>2018</v>
@@ -2532,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G71">
         <v>2018</v>
@@ -2558,16 +2555,16 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G72">
         <v>2018</v>
@@ -2584,16 +2581,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G73">
         <v>2018</v>
@@ -2610,16 +2607,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G74">
         <v>2018</v>
@@ -2636,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G75">
         <v>2018</v>
@@ -2662,16 +2659,16 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G76">
         <v>2018</v>
@@ -2688,16 +2685,16 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G77">
         <v>2018</v>
@@ -2714,16 +2711,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G78">
         <v>2018</v>
@@ -2740,16 +2737,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G79">
         <v>2018</v>
@@ -2766,16 +2763,16 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G80">
         <v>2018</v>
@@ -2792,16 +2789,16 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G81">
         <v>2018</v>
@@ -2818,16 +2815,16 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G82">
         <v>2018</v>
@@ -2844,16 +2841,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G83">
         <v>2018</v>
@@ -2870,16 +2867,16 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G84">
         <v>2018</v>
@@ -2896,16 +2893,16 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G85">
         <v>2018</v>
@@ -2922,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G86">
         <v>2018</v>
@@ -2948,16 +2945,16 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G87">
         <v>2018</v>
@@ -2974,16 +2971,16 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G88">
         <v>2018</v>
@@ -3000,16 +2997,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G89">
         <v>2018</v>
@@ -3026,16 +3023,16 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G90">
         <v>2018</v>
@@ -3052,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G91">
         <v>2018</v>
@@ -3078,16 +3075,16 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G92">
         <v>2018</v>
@@ -3104,16 +3101,16 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G93">
         <v>2018</v>
@@ -3130,16 +3127,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G94">
         <v>2018</v>
@@ -3156,16 +3153,16 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G95">
         <v>2018</v>
@@ -3182,16 +3179,16 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G96">
         <v>2018</v>
@@ -3208,47 +3205,21 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G97">
         <v>2018</v>
       </c>
       <c r="H97">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>105</v>
-      </c>
-      <c r="D98" t="s">
-        <v>106</v>
-      </c>
-      <c r="E98" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98">
-        <v>2018</v>
-      </c>
-      <c r="H98">
         <v>12</v>
       </c>
     </row>
